--- a/static/execl/102.xlsx
+++ b/static/execl/102.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>1701206010</t>
   </si>
@@ -50,36 +50,6 @@
   </si>
   <si>
     <t>1701206003</t>
-  </si>
-  <si>
-    <t>1701206014</t>
-  </si>
-  <si>
-    <t>1701206024</t>
-  </si>
-  <si>
-    <t>1701206004</t>
-  </si>
-  <si>
-    <t>1701206015</t>
-  </si>
-  <si>
-    <t>1701206005</t>
-  </si>
-  <si>
-    <t>1701206016</t>
-  </si>
-  <si>
-    <t>1701206006</t>
-  </si>
-  <si>
-    <t>1701206017</t>
-  </si>
-  <si>
-    <t>1701206007</t>
-  </si>
-  <si>
-    <t>1701206018</t>
   </si>
 </sst>
 </file>
@@ -411,86 +381,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/static/execl/102.xlsx
+++ b/static/execl/102.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>1701206010</t>
-  </si>
-  <si>
-    <t>1701206020</t>
-  </si>
-  <si>
-    <t>1701206000</t>
-  </si>
-  <si>
-    <t>1701206011</t>
-  </si>
-  <si>
-    <t>1701206021</t>
-  </si>
-  <si>
-    <t>1701206001</t>
-  </si>
-  <si>
-    <t>1701206012</t>
-  </si>
-  <si>
-    <t>1701206022</t>
-  </si>
-  <si>
-    <t>1701206002</t>
-  </si>
-  <si>
-    <t>1701206013</t>
-  </si>
-  <si>
-    <t>1701206023</t>
-  </si>
-  <si>
-    <t>1701206003</t>
+    <t>1701206004</t>
+  </si>
+  <si>
+    <t>1801206004</t>
+  </si>
+  <si>
+    <t>1601206004</t>
+  </si>
+  <si>
+    <t>1701206005</t>
+  </si>
+  <si>
+    <t>1801206005</t>
+  </si>
+  <si>
+    <t>1601206005</t>
+  </si>
+  <si>
+    <t>1701206006</t>
+  </si>
+  <si>
+    <t>1801206006</t>
+  </si>
+  <si>
+    <t>1601206006</t>
+  </si>
+  <si>
+    <t>1701206007</t>
+  </si>
+  <si>
+    <t>1801206007</t>
+  </si>
+  <si>
+    <t>1601206007</t>
   </si>
 </sst>
 </file>
